--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H2">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I2">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J2">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>284.251768983368</v>
+        <v>318.688715891152</v>
       </c>
       <c r="R2">
-        <v>284.251768983368</v>
+        <v>1274.754863564608</v>
       </c>
       <c r="S2">
-        <v>0.04698272728078798</v>
+        <v>0.04533676096554209</v>
       </c>
       <c r="T2">
-        <v>0.04698272728078798</v>
+        <v>0.02839716593055749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H3">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I3">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J3">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>408.1171594470077</v>
+        <v>473.4151063826053</v>
       </c>
       <c r="R3">
-        <v>408.1171594470077</v>
+        <v>2840.490638295632</v>
       </c>
       <c r="S3">
-        <v>0.06745589401074423</v>
+        <v>0.06734818788775557</v>
       </c>
       <c r="T3">
-        <v>0.06745589401074423</v>
+        <v>0.06327638849270259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H4">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I4">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J4">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>42.32557436502275</v>
+        <v>46.01471268075333</v>
       </c>
       <c r="R4">
-        <v>42.32557436502275</v>
+        <v>276.08827608452</v>
       </c>
       <c r="S4">
-        <v>0.006995808414866643</v>
+        <v>0.006546068077345855</v>
       </c>
       <c r="T4">
-        <v>0.006995808414866643</v>
+        <v>0.006150299803940558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H5">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I5">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J5">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>57.88174962250896</v>
+        <v>63.45928222040799</v>
       </c>
       <c r="R5">
-        <v>57.88174962250896</v>
+        <v>380.7556933224479</v>
       </c>
       <c r="S5">
-        <v>0.00956702034529224</v>
+        <v>0.009027738246164209</v>
       </c>
       <c r="T5">
-        <v>0.00956702034529224</v>
+        <v>0.008481930849078901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H6">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I6">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J6">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>143.2934184815519</v>
+        <v>156.8788786578226</v>
       </c>
       <c r="R6">
-        <v>143.2934184815519</v>
+        <v>941.2732719469358</v>
       </c>
       <c r="S6">
-        <v>0.02368434020913515</v>
+        <v>0.02231764059283862</v>
       </c>
       <c r="T6">
-        <v>0.02368434020913515</v>
+        <v>0.02096833991653265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H7">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I7">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J7">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N7">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O7">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P7">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q7">
-        <v>121.2208500384248</v>
+        <v>132.417457364906</v>
       </c>
       <c r="R7">
-        <v>121.2208500384248</v>
+        <v>529.669829459624</v>
       </c>
       <c r="S7">
-        <v>0.0200360622502717</v>
+        <v>0.01883775079839368</v>
       </c>
       <c r="T7">
-        <v>0.0200360622502717</v>
+        <v>0.01179922702433581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H8">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J8">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N8">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O8">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P8">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q8">
-        <v>431.1213144272203</v>
+        <v>479.7604363926866</v>
       </c>
       <c r="R8">
-        <v>431.1213144272203</v>
+        <v>2878.56261835612</v>
       </c>
       <c r="S8">
-        <v>0.07125814981947959</v>
+        <v>0.06825087661054297</v>
       </c>
       <c r="T8">
-        <v>0.07125814981947959</v>
+        <v>0.064124501620947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H9">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J9">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N9">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P9">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q9">
-        <v>618.9864951425944</v>
+        <v>712.6886730140255</v>
       </c>
       <c r="R9">
-        <v>618.9864951425944</v>
+        <v>6414.198057126231</v>
       </c>
       <c r="S9">
-        <v>0.1023095609775323</v>
+        <v>0.1013873237429658</v>
       </c>
       <c r="T9">
-        <v>0.1023095609775323</v>
+        <v>0.1428863319103873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H10">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I10">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J10">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N10">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O10">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P10">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q10">
-        <v>64.19470077318448</v>
+        <v>69.2714788299639</v>
       </c>
       <c r="R10">
-        <v>64.19470077318448</v>
+        <v>623.4433094696751</v>
       </c>
       <c r="S10">
-        <v>0.01061046033270171</v>
+        <v>0.009854583237005275</v>
       </c>
       <c r="T10">
-        <v>0.01061046033270171</v>
+        <v>0.01388817851441677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H11">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I11">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J11">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N11">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O11">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P11">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q11">
-        <v>87.78856880241061</v>
+        <v>95.53288652249665</v>
       </c>
       <c r="R11">
-        <v>87.78856880241061</v>
+        <v>859.7959787024699</v>
       </c>
       <c r="S11">
-        <v>0.01451018722298852</v>
+        <v>0.01359053968543396</v>
       </c>
       <c r="T11">
-        <v>0.01451018722298852</v>
+        <v>0.01915330529147078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H12">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I12">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J12">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N12">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O12">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P12">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q12">
-        <v>217.3314422826022</v>
+        <v>236.1686358276294</v>
       </c>
       <c r="R12">
-        <v>217.3314422826022</v>
+        <v>2125.517722448665</v>
       </c>
       <c r="S12">
-        <v>0.03592176020160938</v>
+        <v>0.03359742738344212</v>
       </c>
       <c r="T12">
-        <v>0.03592176020160938</v>
+        <v>0.04734924429622012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.12446642932473</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H13">
-        <v>5.12446642932473</v>
+        <v>16.585895</v>
       </c>
       <c r="I13">
-        <v>0.2649985784895887</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J13">
-        <v>0.2649985784895887</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N13">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O13">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P13">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q13">
-        <v>183.8542373595871</v>
+        <v>199.3439176337058</v>
       </c>
       <c r="R13">
-        <v>183.8542373595871</v>
+        <v>1196.063505802235</v>
       </c>
       <c r="S13">
-        <v>0.03038845993527718</v>
+        <v>0.02835873092783374</v>
       </c>
       <c r="T13">
-        <v>0.03038845993527718</v>
+        <v>0.02664419239223318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H14">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I14">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J14">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N14">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O14">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P14">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q14">
-        <v>112.1814773441688</v>
+        <v>97.24226515223199</v>
       </c>
       <c r="R14">
-        <v>112.1814773441688</v>
+        <v>583.453590913392</v>
       </c>
       <c r="S14">
-        <v>0.01854198401250889</v>
+        <v>0.01383371644843672</v>
       </c>
       <c r="T14">
-        <v>0.01854198401250889</v>
+        <v>0.01299734475035989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H15">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I15">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J15">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N15">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P15">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q15">
-        <v>161.0656146134657</v>
+        <v>144.4543060559853</v>
       </c>
       <c r="R15">
-        <v>161.0656146134657</v>
+        <v>1300.088754503868</v>
       </c>
       <c r="S15">
-        <v>0.02662182850351841</v>
+        <v>0.02055011683043182</v>
       </c>
       <c r="T15">
-        <v>0.02662182850351841</v>
+        <v>0.02896151812503128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H16">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I16">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J16">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N16">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O16">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P16">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q16">
-        <v>16.70401376459527</v>
+        <v>14.04058150880333</v>
       </c>
       <c r="R16">
-        <v>16.70401376459527</v>
+        <v>126.36523357923</v>
       </c>
       <c r="S16">
-        <v>0.002760933119267334</v>
+        <v>0.001997417718107226</v>
       </c>
       <c r="T16">
-        <v>0.002760933119267334</v>
+        <v>0.00281498396936391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H17">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I17">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J17">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N17">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O17">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P17">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q17">
-        <v>22.84334133483712</v>
+        <v>19.363485559228</v>
       </c>
       <c r="R17">
-        <v>22.84334133483712</v>
+        <v>174.271370033052</v>
       </c>
       <c r="S17">
-        <v>0.003775675627121253</v>
+        <v>0.002754655789439011</v>
       </c>
       <c r="T17">
-        <v>0.003775675627121253</v>
+        <v>0.003882168370737377</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H18">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I18">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J18">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N18">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O18">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P18">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q18">
-        <v>56.55151219093129</v>
+        <v>47.86883486781266</v>
       </c>
       <c r="R18">
-        <v>56.55151219093129</v>
+        <v>430.8195138103139</v>
       </c>
       <c r="S18">
-        <v>0.009347151238795433</v>
+        <v>0.006809836106159047</v>
       </c>
       <c r="T18">
-        <v>0.009347151238795433</v>
+        <v>0.009597181049839967</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.33343027914546</v>
+        <v>1.120594</v>
       </c>
       <c r="H19">
-        <v>1.33343027914546</v>
+        <v>3.361782</v>
       </c>
       <c r="I19">
-        <v>0.06895491137700466</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J19">
-        <v>0.06895491137700466</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N19">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O19">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P19">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q19">
-        <v>47.84045527970707</v>
+        <v>40.404861728021</v>
       </c>
       <c r="R19">
-        <v>47.84045527970707</v>
+        <v>242.429170368126</v>
       </c>
       <c r="S19">
-        <v>0.00790733887579333</v>
+        <v>0.00574800884583164</v>
       </c>
       <c r="T19">
-        <v>0.00790733887579333</v>
+        <v>0.005400490379852668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H20">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I20">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J20">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N20">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O20">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P20">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q20">
-        <v>102.9240310651185</v>
+        <v>129.49101361016</v>
       </c>
       <c r="R20">
-        <v>102.9240310651185</v>
+        <v>776.94608166096</v>
       </c>
       <c r="S20">
-        <v>0.01701186134906605</v>
+        <v>0.01842143395260571</v>
       </c>
       <c r="T20">
-        <v>0.01701186134906605</v>
+        <v>0.01730769376186384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H21">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I21">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J21">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N21">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P21">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q21">
-        <v>147.7741487673539</v>
+        <v>192.3601273814267</v>
       </c>
       <c r="R21">
-        <v>147.7741487673539</v>
+        <v>1731.24114643284</v>
       </c>
       <c r="S21">
-        <v>0.02442494045162271</v>
+        <v>0.02736521464215136</v>
       </c>
       <c r="T21">
-        <v>0.02442494045162271</v>
+        <v>0.03856611455757766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H22">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I22">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J22">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N22">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O22">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P22">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q22">
-        <v>15.32556418690038</v>
+        <v>18.69690230276667</v>
       </c>
       <c r="R22">
-        <v>15.32556418690038</v>
+        <v>168.2721207249</v>
       </c>
       <c r="S22">
-        <v>0.002533095238747598</v>
+        <v>0.002659827437335882</v>
       </c>
       <c r="T22">
-        <v>0.002533095238747598</v>
+        <v>0.003748525673673261</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H23">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I23">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J23">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N23">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O23">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P23">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q23">
-        <v>20.95826181683007</v>
+        <v>25.78505722964</v>
       </c>
       <c r="R23">
-        <v>20.95826181683007</v>
+        <v>232.06551506676</v>
       </c>
       <c r="S23">
-        <v>0.003464099107425762</v>
+        <v>0.00366819067576364</v>
       </c>
       <c r="T23">
-        <v>0.003464099107425762</v>
+        <v>0.005169623687242417</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H24">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I24">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J24">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N24">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O24">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P24">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q24">
-        <v>51.88476507277328</v>
+        <v>63.74372231731332</v>
       </c>
       <c r="R24">
-        <v>51.88476507277328</v>
+        <v>573.6935008558199</v>
       </c>
       <c r="S24">
-        <v>0.008575805090537514</v>
+        <v>0.009068202787390128</v>
       </c>
       <c r="T24">
-        <v>0.008575805090537514</v>
+        <v>0.01277992342114289</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.22339286950985</v>
+        <v>1.49222</v>
       </c>
       <c r="H25">
-        <v>1.22339286950985</v>
+        <v>4.47666</v>
       </c>
       <c r="I25">
-        <v>0.06326461024296919</v>
+        <v>0.0688371080151093</v>
       </c>
       <c r="J25">
-        <v>0.06326461024296919</v>
+        <v>0.08476335254845029</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N25">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O25">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P25">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q25">
-        <v>43.89256249738564</v>
+        <v>53.80444904023</v>
       </c>
       <c r="R25">
-        <v>43.89256249738564</v>
+        <v>322.82669424138</v>
       </c>
       <c r="S25">
-        <v>0.007254809005569543</v>
+        <v>0.007654238519862581</v>
       </c>
       <c r="T25">
-        <v>0.007254809005569543</v>
+        <v>0.007191471446950232</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H26">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I26">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J26">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N26">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O26">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P26">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q26">
-        <v>696.4030197135927</v>
+        <v>114.292467760528</v>
       </c>
       <c r="R26">
-        <v>696.4030197135927</v>
+        <v>685.754806563168</v>
       </c>
       <c r="S26">
-        <v>0.1151053985336336</v>
+        <v>0.01625928384860283</v>
       </c>
       <c r="T26">
-        <v>0.1151053985336336</v>
+        <v>0.01527626494022368</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H27">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I27">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J27">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N27">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O27">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P27">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q27">
-        <v>999.8672066398282</v>
+        <v>169.7825435465413</v>
       </c>
       <c r="R27">
-        <v>999.8672066398282</v>
+        <v>1528.042891918872</v>
       </c>
       <c r="S27">
-        <v>0.1652636620506344</v>
+        <v>0.02415332018068793</v>
       </c>
       <c r="T27">
-        <v>0.1652636620506344</v>
+        <v>0.03403955442028397</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H28">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I28">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J28">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N28">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O28">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P28">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q28">
-        <v>103.6956002220649</v>
+        <v>16.50242008371334</v>
       </c>
       <c r="R28">
-        <v>103.6956002220649</v>
+        <v>148.52178075342</v>
       </c>
       <c r="S28">
-        <v>0.01713939062850988</v>
+        <v>0.002347639679039682</v>
       </c>
       <c r="T28">
-        <v>0.01713939062850988</v>
+        <v>0.003308555843092093</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H29">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I29">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J29">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N29">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O29">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P29">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q29">
-        <v>141.8074735914128</v>
+        <v>22.758628108312</v>
       </c>
       <c r="R29">
-        <v>141.8074735914128</v>
+        <v>204.827652974808</v>
       </c>
       <c r="S29">
-        <v>0.02343873490023109</v>
+        <v>0.003237649879020568</v>
       </c>
       <c r="T29">
-        <v>0.02343873490023109</v>
+        <v>0.0045628575461383</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.277702299511621</v>
+        <v>1.317076</v>
       </c>
       <c r="H30">
-        <v>8.277702299511621</v>
+        <v>3.951228</v>
       </c>
       <c r="I30">
-        <v>0.4280600473793395</v>
+        <v>0.06075759799232559</v>
       </c>
       <c r="J30">
-        <v>0.4280600473793395</v>
+        <v>0.07481455637982516</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N30">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O30">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P30">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q30">
-        <v>351.0619113912186</v>
+        <v>56.26203027355066</v>
       </c>
       <c r="R30">
-        <v>351.0619113912186</v>
+        <v>506.3582724619559</v>
       </c>
       <c r="S30">
-        <v>0.05802548248180246</v>
+        <v>0.008003854829987965</v>
       </c>
       <c r="T30">
-        <v>0.05802548248180246</v>
+        <v>0.01127992549344279</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.317076</v>
+      </c>
+      <c r="H31">
+        <v>3.951228</v>
+      </c>
+      <c r="I31">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J31">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>36.0566465</v>
+      </c>
+      <c r="N31">
+        <v>72.113293</v>
+      </c>
+      <c r="O31">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P31">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q31">
+        <v>47.489343745634</v>
+      </c>
+      <c r="R31">
+        <v>284.936062473804</v>
+      </c>
+      <c r="S31">
+        <v>0.006755849574986617</v>
+      </c>
+      <c r="T31">
+        <v>0.006347398136644344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.5465465</v>
+      </c>
+      <c r="H32">
+        <v>17.093093</v>
+      </c>
+      <c r="I32">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J32">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>86.777428</v>
+      </c>
+      <c r="N32">
+        <v>173.554856</v>
+      </c>
+      <c r="O32">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P32">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q32">
+        <v>741.647323552402</v>
+      </c>
+      <c r="R32">
+        <v>2966.589294209608</v>
+      </c>
+      <c r="S32">
+        <v>0.1055069908409105</v>
+      </c>
+      <c r="T32">
+        <v>0.06608543402605031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.5465465</v>
+      </c>
+      <c r="H33">
+        <v>17.093093</v>
+      </c>
+      <c r="I33">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J33">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N33">
+        <v>386.726074</v>
+      </c>
+      <c r="O33">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P33">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q33">
+        <v>1101.72412473448</v>
+      </c>
+      <c r="R33">
+        <v>6610.344748406883</v>
+      </c>
+      <c r="S33">
+        <v>0.1567316343579549</v>
+      </c>
+      <c r="T33">
+        <v>0.1472558074058179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.5465465</v>
+      </c>
+      <c r="H34">
+        <v>17.093093</v>
+      </c>
+      <c r="I34">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J34">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N34">
+        <v>37.588765</v>
+      </c>
+      <c r="O34">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P34">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q34">
+        <v>107.0847093166908</v>
+      </c>
+      <c r="R34">
+        <v>642.5082559001451</v>
+      </c>
+      <c r="S34">
+        <v>0.01523390577472957</v>
+      </c>
+      <c r="T34">
+        <v>0.01431288012781509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.5465465</v>
+      </c>
+      <c r="H35">
+        <v>17.093093</v>
+      </c>
+      <c r="I35">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J35">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.279662</v>
+      </c>
+      <c r="N35">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O35">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P35">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q35">
+        <v>147.681434787283</v>
+      </c>
+      <c r="R35">
+        <v>886.0886087236978</v>
+      </c>
+      <c r="S35">
+        <v>0.02100920921933788</v>
+      </c>
+      <c r="T35">
+        <v>0.01973901490420035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="H31">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="I31">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="J31">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="N31">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="O31">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="P31">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="Q31">
-        <v>296.9851914059577</v>
-      </c>
-      <c r="R31">
-        <v>296.9851914059577</v>
-      </c>
-      <c r="S31">
-        <v>0.04908737878452799</v>
-      </c>
-      <c r="T31">
-        <v>0.04908737878452799</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.5465465</v>
+      </c>
+      <c r="H36">
+        <v>17.093093</v>
+      </c>
+      <c r="I36">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J36">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N36">
+        <v>128.152127</v>
+      </c>
+      <c r="O36">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P36">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q36">
+        <v>365.0860374931351</v>
+      </c>
+      <c r="R36">
+        <v>2190.516224958811</v>
+      </c>
+      <c r="S36">
+        <v>0.05193725911317323</v>
+      </c>
+      <c r="T36">
+        <v>0.04879718798623832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.5465465</v>
+      </c>
+      <c r="H37">
+        <v>17.093093</v>
+      </c>
+      <c r="I37">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J37">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>36.0566465</v>
+      </c>
+      <c r="N37">
+        <v>72.113293</v>
+      </c>
+      <c r="O37">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P37">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q37">
+        <v>308.1598059463122</v>
+      </c>
+      <c r="R37">
+        <v>1232.639223785249</v>
+      </c>
+      <c r="S37">
+        <v>0.04383891479278976</v>
+      </c>
+      <c r="T37">
+        <v>0.02745897393359444</v>
       </c>
     </row>
   </sheetData>
